--- a/notebooks/assets/test/kerasnh3_st0_1_nomountains.xlsx
+++ b/notebooks/assets/test/kerasnh3_st0_1_nomountains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,31 +459,6 @@
           <t>1007_1014_2021</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>0324_0331_2021</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>0418_0425_2021</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>0717_0724_2021</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>0903_0910_2021</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>1007_1014_2021</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -492,33 +467,18 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.726</v>
+        <v>4.546</v>
       </c>
       <c r="C2" t="n">
-        <v>2.967</v>
+        <v>2.393</v>
       </c>
       <c r="D2" t="n">
-        <v>5.44</v>
+        <v>5.53</v>
       </c>
       <c r="E2" t="n">
-        <v>7.736</v>
+        <v>6.645</v>
       </c>
       <c r="F2" t="n">
-        <v>4.552</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4.546</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.393</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="J2" t="n">
-        <v>6.645</v>
-      </c>
-      <c r="K2" t="n">
         <v>3.096</v>
       </c>
     </row>
@@ -529,33 +489,18 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.97</v>
+        <v>44.019</v>
       </c>
       <c r="C3" t="n">
-        <v>15.602</v>
+        <v>11.138</v>
       </c>
       <c r="D3" t="n">
-        <v>57.31</v>
+        <v>47.993</v>
       </c>
       <c r="E3" t="n">
-        <v>113.637</v>
+        <v>71.491</v>
       </c>
       <c r="F3" t="n">
-        <v>51.581</v>
-      </c>
-      <c r="G3" t="n">
-        <v>44.019</v>
-      </c>
-      <c r="H3" t="n">
-        <v>11.138</v>
-      </c>
-      <c r="I3" t="n">
-        <v>47.993</v>
-      </c>
-      <c r="J3" t="n">
-        <v>71.491</v>
-      </c>
-      <c r="K3" t="n">
         <v>20.635</v>
       </c>
     </row>
@@ -566,33 +511,18 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.75</v>
+        <v>0.842</v>
       </c>
       <c r="C4" t="n">
-        <v>0.599</v>
+        <v>0.663</v>
       </c>
       <c r="D4" t="n">
-        <v>0.596</v>
+        <v>0.627</v>
       </c>
       <c r="E4" t="n">
-        <v>0.496</v>
+        <v>0.614</v>
       </c>
       <c r="F4" t="n">
-        <v>0.346</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.842</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.663</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.627</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.614</v>
-      </c>
-      <c r="K4" t="n">
         <v>0.725</v>
       </c>
     </row>
@@ -603,33 +533,18 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.66</v>
+        <v>7.283</v>
       </c>
       <c r="C5" t="n">
-        <v>4.05</v>
+        <v>4.559</v>
       </c>
       <c r="D5" t="n">
-        <v>7.537</v>
+        <v>8.412000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>6.583</v>
+        <v>7.581</v>
       </c>
       <c r="F5" t="n">
-        <v>2.601</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7.283</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.559</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8.412000000000001</v>
-      </c>
-      <c r="J5" t="n">
-        <v>7.581</v>
-      </c>
-      <c r="K5" t="n">
         <v>3.033</v>
       </c>
     </row>
@@ -640,33 +555,18 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69.718</v>
+        <v>78.979</v>
       </c>
       <c r="C6" t="n">
-        <v>31.198</v>
+        <v>36.499</v>
       </c>
       <c r="D6" t="n">
-        <v>115.937</v>
+        <v>135.704</v>
       </c>
       <c r="E6" t="n">
-        <v>102.716</v>
+        <v>123.934</v>
       </c>
       <c r="F6" t="n">
-        <v>13.809</v>
-      </c>
-      <c r="G6" t="n">
-        <v>78.979</v>
-      </c>
-      <c r="H6" t="n">
-        <v>36.499</v>
-      </c>
-      <c r="I6" t="n">
-        <v>135.704</v>
-      </c>
-      <c r="J6" t="n">
-        <v>123.934</v>
-      </c>
-      <c r="K6" t="n">
         <v>16.818</v>
       </c>
     </row>
@@ -677,33 +577,18 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="C7" t="n">
-        <v>0.217</v>
+        <v>-0.106</v>
       </c>
       <c r="D7" t="n">
-        <v>0.212</v>
+        <v>-0.034</v>
       </c>
       <c r="E7" t="n">
-        <v>0.546</v>
+        <v>0.425</v>
       </c>
       <c r="F7" t="n">
-        <v>0.822</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-0.106</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-0.034</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.425</v>
-      </c>
-      <c r="K7" t="n">
         <v>0.591</v>
       </c>
     </row>

--- a/notebooks/assets/test/kerasnh3_st0_1_nomountains.xlsx
+++ b/notebooks/assets/test/kerasnh3_st0_1_nomountains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,128 +467,172 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.546</v>
+        <v>6.147</v>
       </c>
       <c r="C2" t="n">
-        <v>2.393</v>
+        <v>2.593</v>
       </c>
       <c r="D2" t="n">
-        <v>5.53</v>
+        <v>5.095</v>
       </c>
       <c r="E2" t="n">
-        <v>6.645</v>
+        <v>6.807</v>
       </c>
       <c r="F2" t="n">
-        <v>3.096</v>
+        <v>3.315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>MSE_sensor</t>
+          <t>RMSE_sensor</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.019</v>
+        <v>7.945</v>
       </c>
       <c r="C3" t="n">
-        <v>11.138</v>
+        <v>3.484</v>
       </c>
       <c r="D3" t="n">
-        <v>47.993</v>
+        <v>6.553</v>
       </c>
       <c r="E3" t="n">
-        <v>71.491</v>
+        <v>9.031000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>20.635</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>R2_sensor</t>
+          <t>MSE_sensor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.842</v>
+        <v>72.241</v>
       </c>
       <c r="C4" t="n">
-        <v>0.663</v>
+        <v>12.389</v>
       </c>
       <c r="D4" t="n">
-        <v>0.627</v>
+        <v>45.941</v>
       </c>
       <c r="E4" t="n">
-        <v>0.614</v>
+        <v>82.48999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.725</v>
+        <v>26.293</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MAE_cams</t>
+          <t>R2_sensor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.283</v>
+        <v>0.737</v>
       </c>
       <c r="C5" t="n">
-        <v>4.559</v>
+        <v>0.62</v>
       </c>
       <c r="D5" t="n">
-        <v>8.412000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="E5" t="n">
-        <v>7.581</v>
+        <v>0.547</v>
       </c>
       <c r="F5" t="n">
-        <v>3.033</v>
+        <v>0.666</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MSE_cams</t>
+          <t>MAE_cams</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78.979</v>
+        <v>7.283</v>
       </c>
       <c r="C6" t="n">
-        <v>36.499</v>
+        <v>4.559</v>
       </c>
       <c r="D6" t="n">
-        <v>135.704</v>
+        <v>8.412000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>123.934</v>
+        <v>7.581</v>
       </c>
       <c r="F6" t="n">
-        <v>16.818</v>
+        <v>3.033</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>RMSE_cams</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8.867000000000001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.016</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.236</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10.874</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.072</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>MSE_cams</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>78.979</v>
+      </c>
+      <c r="C8" t="n">
+        <v>36.499</v>
+      </c>
+      <c r="D8" t="n">
+        <v>135.704</v>
+      </c>
+      <c r="E8" t="n">
+        <v>123.934</v>
+      </c>
+      <c r="F8" t="n">
+        <v>16.818</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>R2_cams</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B9" t="n">
         <v>0.71</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C9" t="n">
         <v>-0.106</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D9" t="n">
         <v>-0.034</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E9" t="n">
         <v>0.425</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F9" t="n">
         <v>0.591</v>
       </c>
     </row>

--- a/notebooks/assets/test/kerasnh3_st0_1_nomountains.xlsx
+++ b/notebooks/assets/test/kerasnh3_st0_1_nomountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.147</v>
+        <v>5.366</v>
       </c>
       <c r="C2" t="n">
-        <v>2.593</v>
+        <v>2.171</v>
       </c>
       <c r="D2" t="n">
-        <v>5.095</v>
+        <v>4.478</v>
       </c>
       <c r="E2" t="n">
-        <v>6.807</v>
+        <v>6.45</v>
       </c>
       <c r="F2" t="n">
-        <v>3.315</v>
+        <v>3.243</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.945</v>
+        <v>6.533</v>
       </c>
       <c r="C3" t="n">
-        <v>3.484</v>
+        <v>2.939</v>
       </c>
       <c r="D3" t="n">
-        <v>6.553</v>
+        <v>5.739</v>
       </c>
       <c r="E3" t="n">
-        <v>9.031000000000001</v>
+        <v>8.429</v>
       </c>
       <c r="F3" t="n">
-        <v>4.73</v>
+        <v>4.651</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.241</v>
+        <v>50.173</v>
       </c>
       <c r="C4" t="n">
-        <v>12.389</v>
+        <v>9.349</v>
       </c>
       <c r="D4" t="n">
-        <v>45.941</v>
+        <v>35.841</v>
       </c>
       <c r="E4" t="n">
-        <v>82.48999999999999</v>
+        <v>71.58199999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>26.293</v>
+        <v>24.999</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.737</v>
+        <v>0.802</v>
       </c>
       <c r="C5" t="n">
-        <v>0.62</v>
+        <v>0.721</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6</v>
+        <v>0.722</v>
       </c>
       <c r="E5" t="n">
-        <v>0.547</v>
+        <v>0.615</v>
       </c>
       <c r="F5" t="n">
-        <v>0.666</v>
+        <v>0.659</v>
       </c>
     </row>
     <row r="6">

--- a/notebooks/assets/test/kerasnh3_st0_1_nomountains.xlsx
+++ b/notebooks/assets/test/kerasnh3_st0_1_nomountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.366</v>
+        <v>4.625</v>
       </c>
       <c r="C2" t="n">
-        <v>2.171</v>
+        <v>2.297</v>
       </c>
       <c r="D2" t="n">
-        <v>4.478</v>
+        <v>4.749</v>
       </c>
       <c r="E2" t="n">
-        <v>6.45</v>
+        <v>5.573</v>
       </c>
       <c r="F2" t="n">
-        <v>3.243</v>
+        <v>3.139</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.533</v>
+        <v>5.405</v>
       </c>
       <c r="C3" t="n">
-        <v>2.939</v>
+        <v>2.988</v>
       </c>
       <c r="D3" t="n">
-        <v>5.739</v>
+        <v>5.801</v>
       </c>
       <c r="E3" t="n">
-        <v>8.429</v>
+        <v>7.571</v>
       </c>
       <c r="F3" t="n">
-        <v>4.651</v>
+        <v>4.557</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.173</v>
+        <v>33.849</v>
       </c>
       <c r="C4" t="n">
-        <v>9.349</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>35.841</v>
+        <v>37.672</v>
       </c>
       <c r="E4" t="n">
-        <v>71.58199999999999</v>
+        <v>58.766</v>
       </c>
       <c r="F4" t="n">
-        <v>24.999</v>
+        <v>25.848</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.802</v>
+        <v>0.867</v>
       </c>
       <c r="C5" t="n">
-        <v>0.721</v>
+        <v>0.71</v>
       </c>
       <c r="D5" t="n">
-        <v>0.722</v>
+        <v>0.702</v>
       </c>
       <c r="E5" t="n">
-        <v>0.615</v>
+        <v>0.704</v>
       </c>
       <c r="F5" t="n">
-        <v>0.659</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="6">
